--- a/classes/cleric/domains/BonusSpellsArcaneDomain.xlsx
+++ b/classes/cleric/domains/BonusSpellsArcaneDomain.xlsx
@@ -11,9 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>*classes/wizard/SpellListWizard.xlsx=*classes/wizard/SpellListWizard.xlsx</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Detect Magic=Magic Missile</t>
@@ -312,50 +315,110 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
